--- a/output/Clustering/fish and scats/Mann_Whitney_test_clust_both_clean_PCs_coda_rob_k2_ward.xlsx
+++ b/output/Clustering/fish and scats/Mann_Whitney_test_clust_both_clean_PCs_coda_rob_k2_ward.xlsx
@@ -44,6 +44,9 @@
     <t xml:space="preserve">K</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mg</t>
   </si>
   <si>
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Se</t>
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0144079884064919</v>
+        <v>0.00206303639754126</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0104619900519268</v>
+        <v>0.00147878948705096</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000000053321484897256</v>
+        <v>0.000000000000652627308819497</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000000014586656682671</v>
+        <v>0.0000000014407341475876</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.000000000111121653457851</v>
+        <v>0.000000000000412934597529752</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -468,18 +468,18 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0000000000000131060968944854</v>
+        <v>0.086957669958902</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00000299143929145639</v>
+        <v>0.0000000000405231253457771</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00000000000134090190338668</v>
+        <v>0.000000000000696511008331806</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -498,21 +498,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00000000418601223861454</v>
+        <v>0.0954726267129684</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00975371022370014</v>
+        <v>0.00000000000053662953877143</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -520,13 +520,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0827241696414961</v>
+        <v>0.00625273709256366</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0000552161111704371</v>
+        <v>0.00000000589622077286022</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.000000000624764882137581</v>
+        <v>0.000000000334142033205264</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
